--- a/rideExcel/data/ResultsTestNGProduct.xlsx
+++ b/rideExcel/data/ResultsTestNGProduct.xlsx
@@ -77,7 +77,7 @@
     <t>12/18/12</t>
   </si>
   <si>
-    <t>D:\DoanNhatTan_Ki7\Java\backend_java6\DATN_2023\src\main\webapp\assets\products\hung.png</t>
+    <t>C:\Users\ADMIN\Documents\GitHub\DATN_2023\src\main\webapp\assets\accounts\khoa.png</t>
   </si>
   <si>
     <t>this is product 1</t>
@@ -95,10 +95,10 @@
     <t>FALIED</t>
   </si>
   <si>
-    <t xml:space="preserve">16:06:13 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702890382244.png</t>
+    <t xml:space="preserve">21:34:37 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910086632.png</t>
   </si>
   <si>
     <t>Hình Đầy Đủ</t>
@@ -116,10 +116,10 @@
     <t>this is product 2</t>
   </si>
   <si>
-    <t xml:space="preserve">16:06:25 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702890394127.png</t>
+    <t xml:space="preserve">21:34:49 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910097448.png</t>
   </si>
   <si>
     <t>3</t>
@@ -137,10 +137,10 @@
     <t>this is product 3</t>
   </si>
   <si>
-    <t xml:space="preserve">16:06:37 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702890405825.png</t>
+    <t xml:space="preserve">21:34:59 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910107597.png</t>
   </si>
   <si>
     <t>4</t>
@@ -155,10 +155,10 @@
     <t>this is product 4</t>
   </si>
   <si>
-    <t xml:space="preserve">16:06:48 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702890417196.png</t>
+    <t xml:space="preserve">21:35:09 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910117702.png</t>
   </si>
   <si>
     <t>5</t>
@@ -173,10 +173,10 @@
     <t>this is product 5</t>
   </si>
   <si>
-    <t xml:space="preserve">16:07:00 | 18-12-2023 </t>
-  </si>
-  <si>
-    <t>D:/DoanNhatTan_Ki7/Java/backend_java6/DATN_2023/rideExcel/images/failure-1702890428594.png</t>
+    <t xml:space="preserve">21:35:20 | 18-12-2023 </t>
+  </si>
+  <si>
+    <t>C:/Users/ADMIN/Documents/GitHub/DATN_2023/rideExcel/images/failure-1702910128266.png</t>
   </si>
 </sst>
 </file>
@@ -447,9 +447,9 @@
     <col min="2" max="2" width="13.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.0390625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="91.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="91.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="91.58203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="86.75390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="86.75390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="86.75390625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="10.3671875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="6.0390625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.08203125" customWidth="true" bestFit="true"/>
